--- a/script/result_llm_tranform/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
+++ b/script/result_llm_tranform/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
   <si>
     <t>index</t>
   </si>
@@ -164,28 +164,25 @@
     <t>G((H → P) ∧ (L → S)) captures the velocity-based decision. H represents velocity higher than 2.0m/s, L represents velocity lower than 2.0m/s, P represents pass judgment, and S represents stop. The formula globally applies both conditions: high velocity implies pass, low velocity implies stop.</t>
   </si>
   <si>
+    <t>{'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'formula': 'G(V &gt; 2.0 → P)', 'explanation': 'Here, V represents the velocity, and P represents the pass judge. The formula states that globally, if the velocity is higher than 2.0m/s, then it is a pass judge.'}
+{'sentence': 'lower than 2.0m/s ⇒ stop', 'formula': 'G(V &lt; 2.0 → ¬P)', 'explanation': 'Here, V represents the velocity, and P represents the pass judge. The formula states that globally, if the velocity is lower than 2.0m/s, then it is not a pass judge (i.e., stop).'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'formula': 'V &gt; 2.0 → P', 'explanation': 'V &gt; 2.0 represents the vehicle speed above 2.0 m/s, and P indicates a pass judgment. The formula suggests that speeds higher than 2.0 m/s lead to a pass decision.'}
+{'sentence': 'lower than 2.0m/s ⇒ stop', 'formula': 'V &lt; 2.0 → S', 'explanation': 'V &lt; 2.0 represents the vehicle speed below 2.0 m/s, and S indicates a stop decision. The formula implies that speeds lower than 2.0 m/s result in stopping.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'formula': 'G((V &gt; 2.0) → P)', 'explanation': "V represents 'velocity', P represents 'pass judgment'. This formula states that globally, if the velocity is higher than 2.0 m/s, then a pass judgment is made."}
+{'sentence': 'lower than 2.0m/s ⇒ stop', 'formula': 'G((V &lt; 2.0) → S)', 'explanation': "V represents 'velocity', S represents 'stop'. This formula states that globally, if the velocity is lower than 2.0 m/s, then a stop is required."}</t>
+  </si>
+  <si>
     <t>higher than 2.0m/s ⇒ pass judge(using next slide formula)</t>
   </si>
   <si>
-    <t>{'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'formula': 'G(V &gt; 2.0 → P)', 'explanation': 'Here, V represents the velocity, and P represents the pass judge. The formula states that globally, if the velocity is higher than 2.0m/s, then it is a pass judge.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'formula': 'V &gt; 2.0 → P', 'explanation': 'V &gt; 2.0 represents the vehicle speed above 2.0 m/s, and P indicates a pass judgment. The formula suggests that speeds higher than 2.0 m/s lead to a pass decision.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'formula': 'G((V &gt; 2.0) → P)', 'explanation': "V represents 'velocity', P represents 'pass judgment'. This formula states that globally, if the velocity is higher than 2.0 m/s, then a pass judgment is made."}</t>
-  </si>
-  <si>
     <t>lower than 2.0m/s ⇒ stop</t>
   </si>
   <si>
-    <t>{'sentence': 'lower than 2.0m/s ⇒ stop', 'formula': 'G(V &lt; 2.0 → ¬P)', 'explanation': 'Here, V represents the velocity, and P represents the pass judge. The formula states that globally, if the velocity is lower than 2.0m/s, then it is not a pass judge (i.e., stop).'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'lower than 2.0m/s ⇒ stop', 'formula': 'V &lt; 2.0 → S', 'explanation': 'V &lt; 2.0 represents the vehicle speed below 2.0 m/s, and S indicates a stop decision. The formula implies that speeds lower than 2.0 m/s result in stopping.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'lower than 2.0m/s ⇒ stop', 'formula': 'G((V &lt; 2.0) → S)', 'explanation': "V represents 'velocity', S represents 'stop'. This formula states that globally, if the velocity is lower than 2.0 m/s, then a stop is required."}</t>
+    <t>{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y ∧ P', 'explanation': 'Y represents the yellow lamp being active, and P represents the vehicle passing through the stop line. The conjunction Y ∧ P indicates the vehicle can pass through during the yellow lamp phase.'}</t>
   </si>
   <si>
     <t>When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors</t>
@@ -197,33 +194,31 @@
     <t>G(C → ((P → A) ∧ (¬P → E))) models the decision process when the vehicle can't stop. C represents the condition of not being able to stop, P represents the ability to pass through during yellow, A represents choosing to pass, and E represents emergency stop. The formula globally applies this complex decision logic.</t>
   </si>
   <si>
-    <t>{'sentence': '4.When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors', 'formula': '¬R → F(B1 ∨ B2 ∨ B3)', 'explanation': 'R represents the vehicle stopping before the stop line. If this is not possible (¬R), the system eventually chooses one of several behaviors (B1, B2, B3), indicating alternative actions by the autoware.'}</t>
+    <t>{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'G(Y ∧ C → P)', 'explanation': 'Here, Y represents the yellow lamp, C represents the ability to pass through the stop line, and P represents the pass judge. The formula states that globally, if it is possible to pass through the stop line during yellow lamp, then it is a pass judge.'}
+{'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'G(Y ∧ ¬C → ¬P ∧ E)', 'explanation': 'Here, Y represents the yellow lamp, C represents the ability to pass through the stop line, P represents the pass judge, and E represents the emergency stop. The formula states that globally, if it is not possible to pass through the stop line during yellow lamp, then it is not a pass judge and an emergency stop is required.'}
+{'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'formula': 'G(Y → ¬C)', 'explanation': 'Here, Y represents the yellow lamp, and C represents the ability to pass through the stop line. The formula states that globally, during yellow lamp, the vehicle cannot pass through the stop line.'}
+{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y → P', 'explanation': 'Here, Y represents the yellow lamp, and P represents the vehicle passing through the stop line. The formula states that if the yellow lamp is on, the vehicle can pass through the stop line.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'sentence': '4.When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors', 'formula': '¬R → F(B1 ∨ B2 ∨ B3)', 'explanation': 'R represents the vehicle stopping before the stop line. If this is not possible (¬R), the system eventually chooses one of several behaviors (B1, B2, B3), indicating alternative actions by the autoware.'}
+{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'Y ∧ C → P', 'explanation': 'Y denotes the yellow lamp active, C indicates the ability to pass through the stop line, and P represents passing. The formula suggests that if passing through during a yellow lamp is possible, it should pass.'}
+{'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'Y ∧ ¬C → E', 'explanation': "Y indicates the yellow lamp, ¬C represents the inability to pass through, and E is an emergency stop. The formula indicates an emergency stop when passing isn't possible during a yellow light."}
+{'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'formula': 'Y ∧ ¬C', 'explanation': 'Y represents the yellow lamp, and ¬C denotes being unable to pass through the stop line. This captures the condition where passing is not feasible during the yellow light period.'}
+</t>
+  </si>
+  <si>
+    <t>{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'G((C ∧ Y) → P)', 'explanation': "C represents 'can pass through stop line', Y represents 'yellow lamp', and P represents 'pass'. This formula states that globally, if the vehicle can pass through the stop line during a yellow lamp, then it's allowed to pass."}
+{'sentence': '"can\'t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'G((¬C ∧ Y) → E)', 'explanation': "C represents 'can pass through stop line', Y represents 'yellow lamp', and E represents 'emergency stop'. This formula states that globally, if the vehicle can't pass through the stop line during a yellow lamp, then an emergency stop is required."}
+{'sentence': "vehicle can't pass through stop line during yellow lamp.(right side of the yellow lamp line)", 'formula': 'G((Y ∧ R) → ¬C)', 'explanation': "Y represents 'yellow lamp', R represents 'right side of yellow lamp line', and C represents 'can pass through stop line'. This formula states that globally, when on the right side of the yellow lamp line during a yellow lamp, the vehicle cannot pass through the stop line."}
+{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'G((Y ∧ L) → F[0,d](P))', 'explanation': "Here, Y represents the yellow lamp state, L indicates the vehicle being on the left side of the yellow lamp line, and P denotes passing through the stop line. The formula states that globally, when the lamp is yellow and the vehicle is on the left side, it's permissible to pass through within some duration d. The exact value of d would depend on specific traffic regulations."}</t>
   </si>
   <si>
     <t>"can pass through" stop line during yellow lamp =&gt; pass</t>
   </si>
   <si>
-    <t>{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'G(Y ∧ C → P)', 'explanation': 'Here, Y represents the yellow lamp, C represents the ability to pass through the stop line, and P represents the pass judge. The formula states that globally, if it is possible to pass through the stop line during yellow lamp, then it is a pass judge.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'Y ∧ C → P', 'explanation': 'Y denotes the yellow lamp active, C indicates the ability to pass through the stop line, and P represents passing. The formula suggests that if passing through during a yellow lamp is possible, it should pass.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'G((C ∧ Y) → P)', 'explanation': "C represents 'can pass through stop line', Y represents 'yellow lamp', and P represents 'pass'. This formula states that globally, if the vehicle can pass through the stop line during a yellow lamp, then it's allowed to pass."}</t>
-  </si>
-  <si>
     <t>"can’t pass through" stop line during yellow lamp =&gt; emergency stop</t>
   </si>
   <si>
-    <t>{'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'G(Y ∧ ¬C → ¬P ∧ E)', 'explanation': 'Here, Y represents the yellow lamp, C represents the ability to pass through the stop line, P represents the pass judge, and E represents the emergency stop. The formula states that globally, if it is not possible to pass through the stop line during yellow lamp, then it is not a pass judge and an emergency stop is required.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'Y ∧ ¬C → E', 'explanation': "Y indicates the yellow lamp, ¬C represents the inability to pass through, and E is an emergency stop. The formula indicates an emergency stop when passing isn't possible during a yellow light."}</t>
-  </si>
-  <si>
-    <t>{'sentence': '"can\'t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'G((¬C ∧ Y) → E)', 'explanation': "C represents 'can pass through stop line', Y represents 'yellow lamp', and E represents 'emergency stop'. This formula states that globally, if the vehicle can't pass through the stop line during a yellow lamp, then an emergency stop is required."}</t>
-  </si>
-  <si>
     <t>56-58</t>
   </si>
   <si>
@@ -267,24 +262,6 @@
   </si>
   <si>
     <t>{'sentence': 'Due to the property of rule-based planning, the algorithm is greatly depends on object detection and perception accuracy considering traffic light.', 'formula': 'G(D → (A ∧ P))', 'explanation': 'Here, D represents the dependency on object detection, A represents the accuracy of perception, and P represents the consideration of traffic light. The formula states that globally, if the algorithm depends on object detection, then it must also consider perception accuracy and traffic light.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'formula': 'Y ∧ ¬C', 'explanation': 'Y represents the yellow lamp, and ¬C denotes being unable to pass through the stop line. This captures the condition where passing is not feasible during the yellow light period.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': "vehicle can't pass through stop line during yellow lamp.(right side of the yellow lamp line)", 'formula': 'G((Y ∧ R) → ¬C)', 'explanation': "Y represents 'yellow lamp', R represents 'right side of yellow lamp line', and C represents 'can pass through stop line'. This formula states that globally, when on the right side of the yellow lamp line during a yellow lamp, the vehicle cannot pass through the stop line."}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'formula': 'G(Y → ¬C)', 'explanation': 'Here, Y represents the yellow lamp, and C represents the ability to pass through the stop line. The formula states that globally, during yellow lamp, the vehicle cannot pass through the stop line.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y ∧ P', 'explanation': 'Y represents the yellow lamp being active, and P represents the vehicle passing through the stop line. The conjunction Y ∧ P indicates the vehicle can pass through during the yellow lamp phase.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'G((Y ∧ L) → F[0,d](P))', 'explanation': "Here, Y represents the yellow lamp state, L indicates the vehicle being on the left side of the yellow lamp line, and P denotes passing through the stop line. The formula states that globally, when the lamp is yellow and the vehicle is on the left side, it's permissible to pass through within some duration d. The exact value of d would depend on specific traffic regulations."}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y → P', 'explanation': 'Here, Y represents the yellow lamp, and P represents the vehicle passing through the stop line. The formula states that if the yellow lamp is on, the vehicle can pass through the stop line.'}</t>
   </si>
   <si>
     <t>{'sentence': '1.Obtains a traffic light mapped to the route and a stop line correspond to the traffic light from a map information.', 'formula': 'F[0,δ](M ∧ X(L ∧ S))', 'explanation': 'This formula captures the process of obtaining map information. M represents obtaining the map, L represents identifying the traffic light, and S represents identifying the stop line. The formula states that within some short time δ, the map will be obtained, and in the next state, both the traffic light and stop line will be identified. The use of X ensures the sequential nature of this process.'}</t>
@@ -300,7 +277,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +288,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -785,148 +755,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1362,20 +1332,20 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
+      <c r="H2" s="2">
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
+      <c r="J2" s="2">
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
+      <c r="L2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="202" spans="1:12">
@@ -1400,20 +1370,20 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
+      <c r="H3" s="2">
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
+      <c r="J3" s="2">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
+      <c r="L3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="219" spans="1:12">
@@ -1438,20 +1408,20 @@
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
+      <c r="H4" s="2">
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
+      <c r="J4" s="2">
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
+      <c r="L4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="303" spans="1:12">
@@ -1476,20 +1446,20 @@
       <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+      <c r="H5" s="2">
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
+      <c r="J5" s="2">
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>7</v>
+      <c r="L5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="252" spans="1:12">
@@ -1514,23 +1484,23 @@
       <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
+      <c r="H6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
+      <c r="J6" s="2">
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="152" spans="1:12">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="286" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1550,25 +1520,25 @@
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="152" spans="1:12">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="51" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1587,26 +1557,9 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="135" spans="1:12">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="185" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1625,26 +1578,22 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="202" spans="1:12">
+    <row r="10" ht="409.5" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1655,34 +1604,34 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="202" spans="1:12">
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="51" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1701,26 +1650,20 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="236" spans="1:12">
+    <row r="12" ht="68" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -1739,21 +1682,15 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1766,34 +1703,34 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>7</v>
+      <c r="L13" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="286" spans="1:12">
@@ -1804,34 +1741,34 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>7</v>
+      <c r="L14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:12">
@@ -1968,25 +1905,21 @@
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="303" spans="1:12">
+    <row r="19" ht="17" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2005,21 +1938,15 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2043,9 +1970,7 @@
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2056,10 +1981,46 @@
         <v>7</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21">
+        <f>COUNTIF(H2:H20,1)</f>
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <f>COUNTIF(I2:I20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>COUNTIF(J2:J20,1)</f>
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <f>COUNTIF(K2:K20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>COUNTIF(L2:L20,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12">
+      <c r="H22">
+        <f>COUNTIF(H2:H20,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f>COUNTIF(J2:J20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>COUNTIF(L2:L20,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/script/result_llm_tranform/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
+++ b/script/result_llm_tranform/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
@@ -1256,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1992,17 +1992,9 @@
         <f>COUNTIF(H2:H20,1)</f>
         <v>9</v>
       </c>
-      <c r="I21">
-        <f>COUNTIF(I2:I20,1)</f>
-        <v>0</v>
-      </c>
       <c r="J21">
         <f>COUNTIF(J2:J20,1)</f>
         <v>9</v>
-      </c>
-      <c r="K21">
-        <f>COUNTIF(K2:K20,1)</f>
-        <v>0</v>
       </c>
       <c r="L21">
         <f>COUNTIF(L2:L20,1)</f>

--- a/script/result_llm_tranform/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
+++ b/script/result_llm_tranform/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="15060"/>
+    <workbookView windowWidth="21540" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="74">
   <si>
     <t>index</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>lower than 2.0m/s ⇒ stop</t>
-  </si>
-  <si>
-    <t>{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y ∧ P', 'explanation': 'Y represents the yellow lamp being active, and P represents the vehicle passing through the stop line. The conjunction Y ∧ P indicates the vehicle can pass through during the yellow lamp phase.'}</t>
   </si>
   <si>
     <t>When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors</t>
@@ -200,11 +197,11 @@
 {'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y → P', 'explanation': 'Here, Y represents the yellow lamp, and P represents the vehicle passing through the stop line. The formula states that if the yellow lamp is on, the vehicle can pass through the stop line.'}</t>
   </si>
   <si>
-    <t xml:space="preserve">{'sentence': '4.When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors', 'formula': '¬R → F(B1 ∨ B2 ∨ B3)', 'explanation': 'R represents the vehicle stopping before the stop line. If this is not possible (¬R), the system eventually chooses one of several behaviors (B1, B2, B3), indicating alternative actions by the autoware.'}
+    <t>{'sentence': '4.When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors', 'formula': '¬R → F(B1 ∨ B2 ∨ B3)', 'explanation': 'R represents the vehicle stopping before the stop line. If this is not possible (¬R), the system eventually chooses one of several behaviors (B1, B2, B3), indicating alternative actions by the autoware.'}
 {'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'Y ∧ C → P', 'explanation': 'Y denotes the yellow lamp active, C indicates the ability to pass through the stop line, and P represents passing. The formula suggests that if passing through during a yellow lamp is possible, it should pass.'}
 {'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'formula': 'Y ∧ ¬C → E', 'explanation': "Y indicates the yellow lamp, ¬C represents the inability to pass through, and E is an emergency stop. The formula indicates an emergency stop when passing isn't possible during a yellow light."}
 {'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'formula': 'Y ∧ ¬C', 'explanation': 'Y represents the yellow lamp, and ¬C denotes being unable to pass through the stop line. This captures the condition where passing is not feasible during the yellow light period.'}
-</t>
+{'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'formula': 'Y ∧ P', 'explanation': 'Y represents the yellow lamp being active, and P represents the vehicle passing through the stop line. The conjunction Y ∧ P indicates the vehicle can pass through during the yellow lamp phase.'}</t>
   </si>
   <si>
     <t>{'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'formula': 'G((C ∧ Y) → P)', 'explanation': "C represents 'can pass through stop line', Y represents 'yellow lamp', and P represents 'pass'. This formula states that globally, if the vehicle can pass through the stop line during a yellow lamp, then it's allowed to pass."}
@@ -1256,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1559,7 +1556,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="185" spans="1:12">
+    <row r="9" ht="34" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1582,9 +1579,7 @@
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1604,28 +1599,28 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -1642,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1674,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -1703,31 +1698,31 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -1741,31 +1736,31 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -1905,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1981,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
